--- a/experiment result cnn/1024_0.0_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/1024_0.0_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01080928648725009</v>
+        <v>0.01836538517974098</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.006870695944834347</v>
+        <v>0.01470633634955943</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009935209881738811</v>
+        <v>0.006822958666955117</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.006669864436973513</v>
+        <v>0.01755112255042362</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.006846244904630533</v>
+        <v>0.008838592992175496</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.009028879297592957</v>
+        <v>0.0100498903001943</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.008973092753334973</v>
+        <v>0.0126792794878104</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.007728110227647118</v>
+        <v>0.01490920931054748</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01172159338696168</v>
+        <v>0.01146488771889776</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.009784732355154509</v>
+        <v>0.01531529924195887</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.005229544660898497</v>
+        <v>0.02183279243703807</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.005644047623984508</v>
+        <v>0.0130842210276775</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.008730998025672849</v>
+        <v>0.01389501879556212</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.004988779277153387</v>
+        <v>0.00581677413019537</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.006269628917791522</v>
+        <v>0.009040371711330047</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.009864760845129173</v>
+        <v>0.007225710207552015</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.008756011010747461</v>
+        <v>0.01065606634902978</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01068510918310023</v>
+        <v>0.01328695587002487</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01589411296742536</v>
+        <v>0.01025185751681974</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.006704090761553484</v>
+        <v>0.01470617819610093</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0105516507742399</v>
+        <v>0.01633112049606312</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01338957660312126</v>
+        <v>0.009242190395266059</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0155148020325569</v>
+        <v>0.01653441314679341</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.008644641497991995</v>
+        <v>0.01126244063376199</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01548838117985</v>
+        <v>0.0161277328695376</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01890908845292654</v>
+        <v>0.007628736696336172</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.009096379616098042</v>
+        <v>0.01369228136778606</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01394061670287825</v>
+        <v>0.005213432105400677</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01903786699920896</v>
+        <v>0.01694094396538392</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.006391930244927201</v>
+        <v>0.008435203347084815</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.004460442466475182</v>
+        <v>0.02285471407282988</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0051914391881512</v>
+        <v>0.00863683009981437</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.009794071810784134</v>
+        <v>0.008435083568594478</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00342326345267087</v>
+        <v>0.006621642383443126</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01018276688047553</v>
+        <v>0.01369222116676208</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01014110266475023</v>
+        <v>0.008031877772554159</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.00848040339216136</v>
+        <v>0.009242215102383306</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.006249172206015632</v>
+        <v>0.009646048067836581</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.007486524079691094</v>
+        <v>0.008031877772554159</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.005337003294014109</v>
+        <v>0.01470633634955943</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01548289652437846</v>
+        <v>0.01227440676710756</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01040843300332623</v>
+        <v>0.01612776678483834</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.004695865420410517</v>
+        <v>0.006420410479780423</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.006359974709573442</v>
+        <v>0.010858099238725</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01060456007210655</v>
+        <v>0.009847582010913883</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02017470788008531</v>
+        <v>0.007628783225185546</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0113178891489139</v>
+        <v>0.007427214795258365</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02138133520897653</v>
+        <v>0.02162854400089002</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01043984633608998</v>
+        <v>0.01348970305816184</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.004005650734539234</v>
+        <v>0.01409779616952947</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0047603056458921</v>
+        <v>0.01369125466293906</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.007923727409148011</v>
+        <v>0.03209582725222237</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01169849136738383</v>
+        <v>0.01836538517974098</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04137700647034782</v>
+        <v>0.03519660147683485</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01206271615432785</v>
+        <v>0.01551822457199907</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.003987076026634265</v>
+        <v>0.01369152711916698</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01014490682526164</v>
+        <v>0.01369201027329742</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0101231362802522</v>
+        <v>0.01999534136743125</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.00568660300181346</v>
+        <v>0.03830383418518872</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01046936036736826</v>
+        <v>0.01592425395765744</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03623375876212425</v>
+        <v>0.02428732092072396</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0154380819232654</v>
+        <v>0.01714403553948313</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01098006228299389</v>
+        <v>0.01612780069335421</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0004842258591293117</v>
+        <v>0.04100143123566975</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.001835787877408475</v>
+        <v>0.004610344758774428</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.002938160366463435</v>
+        <v>0.03622851573365125</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02471432768775881</v>
+        <v>0.03705522532712213</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0003987548174094416</v>
+        <v>0.01146431681654185</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03112099980475692</v>
+        <v>0.03230394602604868</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.009190888758761683</v>
+        <v>0.01653413632542915</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01159427076954112</v>
+        <v>0.0193839064077003</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01738637777287904</v>
+        <v>0.0283904198418062</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.003264670956237508</v>
+        <v>0.01795726029501053</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.02676473045309327</v>
+        <v>0.0251057856933526</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.001883384449570137</v>
+        <v>0.01126192809816118</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01462668673986276</v>
+        <v>0.02736277161193002</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01075563167082816</v>
+        <v>0.01146469768475538</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.00603642728496026</v>
+        <v>0.01288103438430875</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.002767905020342767</v>
+        <v>0.02674582111047573</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0005463200734989997</v>
+        <v>0.03085834570380615</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.003327344617227202</v>
+        <v>0.04078863483196036</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.009523313348314742</v>
+        <v>0.01958755850349502</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01527266123779913</v>
+        <v>0.02265027005113804</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.001582546849877538</v>
+        <v>0.010858099238725</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0008532124403467562</v>
+        <v>0.03044697124743578</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.004010128644969916</v>
+        <v>0.03086004713678364</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0001660319770522557</v>
+        <v>0.003606437698096069</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.005416020936790478</v>
+        <v>0.02756798980388706</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.001317876077689362</v>
+        <v>0.06369256300814181</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.27863597061452e-05</v>
+        <v>0.01856869604722715</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.01097348231541015</v>
+        <v>0.06178228721047387</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.01124427328711844</v>
+        <v>0.02715735232784737</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0003701436254093703</v>
+        <v>0.01714385678940569</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0007649129860769691</v>
+        <v>0.01775340010871977</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.01556019352762587</v>
+        <v>0.02081150967481904</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.02808311321438314</v>
+        <v>0.03250977204142835</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0002171817769556228</v>
+        <v>0.05313425771361679</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.001665690706155657</v>
+        <v>0.04893111036955999</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.02977162624650291</v>
+        <v>0.05376425387514347</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.000223868446760019</v>
+        <v>0.005213194301125829</v>
       </c>
     </row>
   </sheetData>
